--- a/classfiers/chain/decisionTree/smote/chain-decisionTree-smote-results.xlsx
+++ b/classfiers/chain/decisionTree/smote/chain-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.5610999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9974937343358395</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9974999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9076956521739131</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9403438172897032</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9117199999999999</v>
       </c>
     </row>
   </sheetData>
